--- a/src/proyectos/Pruebas caja negra (Teclado).xlsx
+++ b/src/proyectos/Pruebas caja negra (Teclado).xlsx
@@ -4,10 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="710" firstSheet="18" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Leer carácter" sheetId="1" r:id="rId1"/>
+    <sheet name="Leer cadena" sheetId="2" r:id="rId2"/>
+    <sheet name="Leer número (Byte)" sheetId="3" r:id="rId3"/>
+    <sheet name="Leer número (Short)" sheetId="4" r:id="rId4"/>
+    <sheet name="Leer número (Int)" sheetId="5" r:id="rId5"/>
+    <sheet name="Leer número (Long)" sheetId="6" r:id="rId6"/>
+    <sheet name="Leer número (Float)" sheetId="7" r:id="rId7"/>
+    <sheet name="Leer número (Double)" sheetId="8" r:id="rId8"/>
+    <sheet name="Leer número límite (Byte)" sheetId="9" r:id="rId9"/>
+    <sheet name="Leer número límite (Short)" sheetId="10" r:id="rId10"/>
+    <sheet name="Leer número límite (Int)" sheetId="11" r:id="rId11"/>
+    <sheet name="Leer número límite (Long)" sheetId="12" r:id="rId12"/>
+    <sheet name="Leer número límite (Float)" sheetId="13" r:id="rId13"/>
+    <sheet name="Leer número límite (Double)" sheetId="14" r:id="rId14"/>
+    <sheet name="Leer número rango (Byte)" sheetId="15" r:id="rId15"/>
+    <sheet name="Leer número rango (Short)" sheetId="16" r:id="rId16"/>
+    <sheet name="Leer número rango (Int)" sheetId="17" r:id="rId17"/>
+    <sheet name="Leer número rango (Long)" sheetId="18" r:id="rId18"/>
+    <sheet name="Leer número rango (Float)" sheetId="19" r:id="rId19"/>
+    <sheet name="Leer número rango (Double)" sheetId="20" r:id="rId20"/>
+    <sheet name="Elegir (dos opciones)" sheetId="21" r:id="rId21"/>
+    <sheet name="Elegir (si, no)" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="157">
   <si>
     <t>Clases de equivalencia válidas</t>
   </si>
@@ -31,13 +52,483 @@
   </si>
   <si>
     <t>Valores límite</t>
+  </si>
+  <si>
+    <t>una letra</t>
+  </si>
+  <si>
+    <t>un número</t>
+  </si>
+  <si>
+    <t>un símbolo</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>más de un carácter</t>
+  </si>
+  <si>
+    <t>a | A | z | Z</t>
+  </si>
+  <si>
+    <t>más de un número</t>
+  </si>
+  <si>
+    <t>más de un símbolo</t>
+  </si>
+  <si>
+    <t>0 | 1 | 8 | 9</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* | ? | </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+  </si>
+  <si>
+    <t>hola | que tal | a b c</t>
+  </si>
+  <si>
+    <t>123 | 1 2 3 | 1 2</t>
+  </si>
+  <si>
+    <t>?* | ? *</t>
+  </si>
+  <si>
+    <t>a, z | A, Z</t>
+  </si>
+  <si>
+    <t>0, 9</t>
+  </si>
+  <si>
+    <t>un carácter</t>
+  </si>
+  <si>
+    <t>un  número</t>
+  </si>
+  <si>
+    <t>caracteres y números</t>
+  </si>
+  <si>
+    <t>caracteres y símbolos</t>
+  </si>
+  <si>
+    <t>números y símbolos</t>
+  </si>
+  <si>
+    <t>caracteres, números y símbolos</t>
+  </si>
+  <si>
+    <t>* | ? | /</t>
+  </si>
+  <si>
+    <t>hola | que tal | a b y z</t>
+  </si>
+  <si>
+    <t>123 | 0189 | 01 89</t>
+  </si>
+  <si>
+    <t>*?/ | *? / | * ? /</t>
+  </si>
+  <si>
+    <t>h1 | 1h | hola1 | hola 1 | hola 12</t>
+  </si>
+  <si>
+    <t>h* | *h | hola* | hola *? | *? hola</t>
+  </si>
+  <si>
+    <t>1* | *1 | 1 * | 123 */? | */? 123</t>
+  </si>
+  <si>
+    <t>a1* | *1a | a 1 * | hola 123 */?</t>
+  </si>
+  <si>
+    <t>cero</t>
+  </si>
+  <si>
+    <t>número mayor a 127</t>
+  </si>
+  <si>
+    <t>número menor a -128</t>
+  </si>
+  <si>
+    <t>número positivo menor o igual a 127</t>
+  </si>
+  <si>
+    <t>1 | 2 | 127 | 126 | 75</t>
+  </si>
+  <si>
+    <t>-1 | -2 | -54 | -127 | -128</t>
+  </si>
+  <si>
+    <t>128 | 129</t>
+  </si>
+  <si>
+    <t>-129 | -130</t>
+  </si>
+  <si>
+    <t>número negativo mayor o igual a -128</t>
+  </si>
+  <si>
+    <t>0 | 9</t>
+  </si>
+  <si>
+    <t>1, 127</t>
+  </si>
+  <si>
+    <t>-1, -128</t>
+  </si>
+  <si>
+    <t>-129</t>
+  </si>
+  <si>
+    <t>número positivo menor o igual a 32767</t>
+  </si>
+  <si>
+    <t>número negativo mayor o igual a -32768</t>
+  </si>
+  <si>
+    <t>número mayor a 32767</t>
+  </si>
+  <si>
+    <t>número menor a -32768</t>
+  </si>
+  <si>
+    <t>1 | 2 | 32767 | 32766</t>
+  </si>
+  <si>
+    <t>1, 32767</t>
+  </si>
+  <si>
+    <t>-1 | -2 | -32767 | -32768</t>
+  </si>
+  <si>
+    <t>-1, -32768</t>
+  </si>
+  <si>
+    <t>32768 | 32769</t>
+  </si>
+  <si>
+    <t>-32769</t>
+  </si>
+  <si>
+    <t>-32769 | -32770</t>
+  </si>
+  <si>
+    <t>número negativo mayor o igual a -2147483648</t>
+  </si>
+  <si>
+    <t>número positivo menor o igual a 2147483649</t>
+  </si>
+  <si>
+    <t>número mayor a 2147483649</t>
+  </si>
+  <si>
+    <t>número menor a -2147483648</t>
+  </si>
+  <si>
+    <t>1 | 2 | 2147483649 | 2147483648</t>
+  </si>
+  <si>
+    <t>1, 2147483649</t>
+  </si>
+  <si>
+    <t>-1 | -2 | -2147483648 | -2147483647</t>
+  </si>
+  <si>
+    <t>-1, -2147483648</t>
+  </si>
+  <si>
+    <t>2147483650 | 2147483651</t>
+  </si>
+  <si>
+    <t>-2147483649 | -2147483650</t>
+  </si>
+  <si>
+    <t>-2147483649</t>
+  </si>
+  <si>
+    <t>número positivo menor o igual a 9 * 10^18</t>
+  </si>
+  <si>
+    <t>número negativo mayor o igual a -9 * 10^18</t>
+  </si>
+  <si>
+    <t>número mayor a 9 * 10^18</t>
+  </si>
+  <si>
+    <t>número menor a -9 * 10^18</t>
+  </si>
+  <si>
+    <t>1 | 2 | 9223372036854775807 | 9223372036854775806</t>
+  </si>
+  <si>
+    <t>1, 9223372036854775807</t>
+  </si>
+  <si>
+    <t>-1, -9223372036854775808</t>
+  </si>
+  <si>
+    <t>-1 | -2 | -9223372036854775808 | -9223372036854775807</t>
+  </si>
+  <si>
+    <t>9223372036854775808 | 9223372036854775809</t>
+  </si>
+  <si>
+    <t>9223372036854775808</t>
+  </si>
+  <si>
+    <t>-9223372036854775809</t>
+  </si>
+  <si>
+    <t>-9223372036854775809 | -9223372036854775810</t>
+  </si>
+  <si>
+    <t>número positivo menor o igual a 1,79 * 10 ^ 38</t>
+  </si>
+  <si>
+    <t>número negativo mayor o igual a -1,79 * 10 ^ 38</t>
+  </si>
+  <si>
+    <t>número mayor a 1,79 * 10 ^ 38</t>
+  </si>
+  <si>
+    <t>número menor a -1,79 * 10 ^ 38</t>
+  </si>
+  <si>
+    <t>1,79e + 39 | 1,79e + 40</t>
+  </si>
+  <si>
+    <t>1, 1,79e + 38</t>
+  </si>
+  <si>
+    <t>-1, -1,79e + 38</t>
+  </si>
+  <si>
+    <t>1,79e + 39</t>
+  </si>
+  <si>
+    <t>-1,79e + 39</t>
+  </si>
+  <si>
+    <t>-1,79e + 39 | -1,79e + 40</t>
+  </si>
+  <si>
+    <t>número positivo menor o igual a 1,79 * 10 ^ 308</t>
+  </si>
+  <si>
+    <t>número negativo mayor o igual a -1,79 * 10 ^ 308</t>
+  </si>
+  <si>
+    <t>número mayor a 1,79 * 10 ^ 308</t>
+  </si>
+  <si>
+    <t>número menor a -1,79 * 10 ^ 308</t>
+  </si>
+  <si>
+    <t>1 | 2 | 20,5 | 20,5555</t>
+  </si>
+  <si>
+    <t>-1 | -2 | -87,7 | -87,777889</t>
+  </si>
+  <si>
+    <t>1 | 2 | 40,4 | 470,7546</t>
+  </si>
+  <si>
+    <t>1, 1,79e + 308</t>
+  </si>
+  <si>
+    <t>-1, -1,79e + 308</t>
+  </si>
+  <si>
+    <t>1,79e + 309</t>
+  </si>
+  <si>
+    <t>-1,79e + 309</t>
+  </si>
+  <si>
+    <t>1,79e + 309 | 1,79e + 310</t>
+  </si>
+  <si>
+    <t>-1,79e + 309 | -1,79e + 310</t>
+  </si>
+  <si>
+    <t>-1 | -2 | -45,89 | -9054,54689</t>
+  </si>
+  <si>
+    <t>Valor límite = 7</t>
+  </si>
+  <si>
+    <t>Mayor o igual</t>
+  </si>
+  <si>
+    <t>Menor o igual</t>
+  </si>
+  <si>
+    <t>Mayor</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>número mayor al límite</t>
+  </si>
+  <si>
+    <t>número igual al límite</t>
+  </si>
+  <si>
+    <t>número menor al límite</t>
+  </si>
+  <si>
+    <t>8 | 9 | 50</t>
+  </si>
+  <si>
+    <t>6 | 5 | -20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>6 | 5 | -35</t>
+  </si>
+  <si>
+    <t>6 | 5 | -25</t>
+  </si>
+  <si>
+    <t>max = 10, min = 50</t>
+  </si>
+  <si>
+    <t>ambos incluidos</t>
+  </si>
+  <si>
+    <t>ambos excluidos</t>
+  </si>
+  <si>
+    <t>mínimo incluido</t>
+  </si>
+  <si>
+    <t>máximo incluido</t>
+  </si>
+  <si>
+    <t>nº mayor al mínimo y menor al máximo</t>
+  </si>
+  <si>
+    <t>nº igual al mínimo</t>
+  </si>
+  <si>
+    <t>nº igual al máximo</t>
+  </si>
+  <si>
+    <t>nº menor al mínimo</t>
+  </si>
+  <si>
+    <t>nº mayor al máximo</t>
+  </si>
+  <si>
+    <t>11 | 12 | 48 | 49</t>
+  </si>
+  <si>
+    <t>11, 49</t>
+  </si>
+  <si>
+    <t>9 | 8 | -30</t>
+  </si>
+  <si>
+    <t>51 | 52 | 120</t>
+  </si>
+  <si>
+    <t>8 | 9 | 132</t>
+  </si>
+  <si>
+    <t>8 | 9 | 100</t>
+  </si>
+  <si>
+    <t>9 | 8 | -47</t>
+  </si>
+  <si>
+    <t>9 | 8 | -75</t>
+  </si>
+  <si>
+    <t>51 | 52 | 91</t>
+  </si>
+  <si>
+    <t>51 | 52 | 68</t>
+  </si>
+  <si>
+    <t>51 | 52 | 83</t>
+  </si>
+  <si>
+    <t>nº igual a 1</t>
+  </si>
+  <si>
+    <t>nº igual a 2</t>
+  </si>
+  <si>
+    <t>nº distinto de 1 u 2</t>
+  </si>
+  <si>
+    <t>3 | 4 | 20 | -50 | 0</t>
+  </si>
+  <si>
+    <t>0, 3</t>
+  </si>
+  <si>
+    <t>introducir una letra o símbolo</t>
+  </si>
+  <si>
+    <t>a | A | * | abcABC | *?/</t>
+  </si>
+  <si>
+    <t>introducir carácter distinto de 's' o 'n'</t>
+  </si>
+  <si>
+    <t>introducir 's'</t>
+  </si>
+  <si>
+    <t>introducir 'n'</t>
+  </si>
+  <si>
+    <t>introducir números</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>a | b | A | B | hola que tal</t>
+  </si>
+  <si>
+    <t>introducir 'S'</t>
+  </si>
+  <si>
+    <t>introducir 'N'</t>
+  </si>
+  <si>
+    <t>1 | 2 | 0 | 50 | -123</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,12 +545,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,18 +581,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -97,21 +616,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -178,7 +682,52 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -190,8 +739,97 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -205,9 +843,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -220,12 +856,71 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -235,13 +930,26 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -253,10 +961,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -265,13 +973,13 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -280,48 +988,207 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,33 +1471,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="8" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -641,85 +1664,4034 @@
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="14"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="14"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V24"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+    </row>
+    <row r="3" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+    </row>
+    <row r="4" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+    </row>
+    <row r="5" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="8">
+        <v>10</v>
+      </c>
+      <c r="V6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="8">
+        <v>50</v>
+      </c>
+      <c r="V7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="8">
+        <v>10</v>
+      </c>
+      <c r="V10" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="8">
+        <v>50</v>
+      </c>
+      <c r="V12" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="V14" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="V15" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="V16" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="39"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="8">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="8">
+        <v>50</v>
+      </c>
+      <c r="V18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="V19" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="V20" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="8">
+        <v>50</v>
+      </c>
+      <c r="V21" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S22" s="26"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="V22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23" s="3"/>
+      <c r="U23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="V23" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="8">
+        <v>10</v>
+      </c>
+      <c r="V24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:T1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="U1:U4"/>
+    <mergeCell ref="V1:V4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" activeCellId="1" sqref="G1:G2 H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="15" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="17"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" customWidth="1"/>
+    <col min="5" max="6" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="67" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="1">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2147483650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="52.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="16" width="35.7109375" customWidth="1"/>
+    <col min="17" max="18" width="29.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+    </row>
+    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="44"/>
+      <c r="K3" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="44"/>
+      <c r="M3" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="44"/>
+      <c r="O3" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+    </row>
+    <row r="4" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" s="44"/>
+      <c r="M4" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="8">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="8">
+        <v>7</v>
+      </c>
+      <c r="R8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="30"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="R10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="52"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="26"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="8">
+        <v>7</v>
+      </c>
+      <c r="R14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>7</v>
+      </c>
+      <c r="R16" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="Q1:Q4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="R1:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>